--- a/7/2/2/2/2/2/Fondos de pensiones 2003 a 2021 - Trimestral.xlsx
+++ b/7/2/2/2/2/2/Fondos de pensiones 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Serie</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -659,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W74"/>
+  <dimension ref="A1:W75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5859,10 +5862,10 @@
         <v>-1048</v>
       </c>
       <c r="D74">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="E74">
-        <v>-1231</v>
+        <v>-1252</v>
       </c>
       <c r="F74">
         <v>449</v>
@@ -5907,16 +5910,87 @@
         <v>-1019</v>
       </c>
       <c r="T74">
-        <v>871</v>
+        <v>691</v>
       </c>
       <c r="U74">
-        <v>-17</v>
+        <v>4</v>
       </c>
       <c r="V74">
-        <v>-536</v>
+        <v>-356</v>
       </c>
       <c r="W74">
-        <v>-1337</v>
+        <v>-1358</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75">
+        <v>-8369</v>
+      </c>
+      <c r="C75">
+        <v>-366</v>
+      </c>
+      <c r="D75">
+        <v>166</v>
+      </c>
+      <c r="E75">
+        <v>-531</v>
+      </c>
+      <c r="F75">
+        <v>-2933</v>
+      </c>
+      <c r="G75">
+        <v>85</v>
+      </c>
+      <c r="H75">
+        <v>-3018</v>
+      </c>
+      <c r="I75">
+        <v>-151</v>
+      </c>
+      <c r="J75">
+        <v>-4920</v>
+      </c>
+      <c r="K75">
+        <v>-1403</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-3517</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>-8369</v>
+      </c>
+      <c r="Q75">
+        <v>-8424</v>
+      </c>
+      <c r="R75">
+        <v>55</v>
+      </c>
+      <c r="S75">
+        <v>-8369</v>
+      </c>
+      <c r="T75">
+        <v>-4550</v>
+      </c>
+      <c r="U75">
+        <v>-188</v>
+      </c>
+      <c r="V75">
+        <v>-370</v>
+      </c>
+      <c r="W75">
+        <v>-3262</v>
       </c>
     </row>
   </sheetData>
